--- a/deliveribles/Reports.xlsx
+++ b/deliveribles/Reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMP #3\VLSI\VLSI-Projects\VLSI-Multipliers\deliveribles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D05F7-F6FC-4989-8D1A-17F8CD0F4D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB7F635-BE31-4003-A328-3869A8E36332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="3372" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>Carry Save Adder</t>
   </si>
@@ -106,15 +106,9 @@
     <t>Clock</t>
   </si>
   <si>
-    <t>Total power</t>
-  </si>
-  <si>
     <t>Utilization</t>
   </si>
   <si>
-    <t>Number Latches/Flip Flops</t>
-  </si>
-  <si>
     <t>Verilog Multiplier</t>
   </si>
   <si>
@@ -131,6 +125,21 @@
   </si>
   <si>
     <t>Floating Point Multiplier</t>
+  </si>
+  <si>
+    <t>2ns</t>
+  </si>
+  <si>
+    <t>Total power (uW)</t>
+  </si>
+  <si>
+    <t>Flip Flops</t>
+  </si>
+  <si>
+    <t>Number Latches</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 169|</t>
   </si>
 </sst>
 </file>
@@ -249,6 +258,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,7 +268,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,34 +565,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -650,34 +659,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -744,34 +753,34 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -832,34 +841,34 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -920,34 +929,34 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1008,34 +1017,34 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1096,34 +1105,34 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1184,34 +1193,34 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -1272,34 +1281,34 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1411,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C5:J12"/>
+  <dimension ref="C5:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,27 +1432,29 @@
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,173 +1465,152 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="D7" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E7" s="1">
+        <v>115.6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3544.946289</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6263</v>
+      </c>
+      <c r="I7" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>192</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7242.4409180000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>8422</v>
+      </c>
+      <c r="I8" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>128</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1">
-        <v>19500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3313.3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16186.7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>18404.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.8358679999999996</v>
-      </c>
-      <c r="I7" s="1">
-        <v>7.5817730000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.2053859999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
-        <v>19500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2582.9</v>
-      </c>
-      <c r="F8" s="1">
-        <v>16917.099999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>18406.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.3133579999999991</v>
-      </c>
-      <c r="I8" s="1">
-        <v>17.327546999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4.2053859999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
+      <c r="D10" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>153.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2951.6120609999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2248</v>
+      </c>
+      <c r="I10" s="1">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
-        <v>19500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2582.1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>16917.900000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>18405.900000000001</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16.183603000000002</v>
-      </c>
-      <c r="I9" s="1">
-        <v>31.498101999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>8.2003210000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1">
-        <v>19500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2841.6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16658.400000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>18363.599999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6.8695329999999997</v>
-      </c>
-      <c r="I10" s="1">
-        <v>20.417660000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.5430000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1">
-        <v>19500</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2339.6999999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>17160.3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>18431.400000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10.643272</v>
-      </c>
-      <c r="I11" s="1">
-        <v>18.815377999999999</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5.5814250000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8">
-        <v>19500</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2433.3000000000002</v>
-      </c>
-      <c r="F12" s="8">
-        <v>17066.7</v>
-      </c>
-      <c r="G12" s="8">
-        <v>17948.599999999999</v>
-      </c>
-      <c r="H12" s="8">
-        <v>23.135798000000001</v>
-      </c>
-      <c r="I12" s="8">
-        <v>100.135193</v>
-      </c>
-      <c r="J12" s="8">
-        <v>22.582581999999999</v>
-      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
